--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_305.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_305.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32879-d240887-Reviews-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>42</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-GuestHouse-Inn-Suites-Pico-RiveraDowney.h874434.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_305.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_305.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,393 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r524618113-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>32879</t>
+  </si>
+  <si>
+    <t>240887</t>
+  </si>
+  <si>
+    <t>524618113</t>
+  </si>
+  <si>
+    <t>09/15/2017</t>
+  </si>
+  <si>
+    <t>Terrible breakfast</t>
+  </si>
+  <si>
+    <t>The room was big and very comfortable, well equipped and very easy to park the car. It's a very good location to stay when visiting LA or just passing by.The breakfast was extremely terrible, it can't even be called breakfast. The staff could have been more friendly.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r510810055-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>510810055</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>I stayed here during a 3 night visit to Los Angeles and had no problems.  After reading the bad reviews, I wasn't sure beforehand but enjoyed my stay and would stay here again if in the area. The Wi-Fi didn't work which a lot of people complain about, but I just used my data no big deal.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r500081829-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>500081829</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREE CANCELLATION ON TIME AND THEY CHARGED THE RATE </t>
+  </si>
+  <si>
+    <t>I booked in this hotel june 2017 , we had  a free cancellation option but when we cancel the booking on time , after my cancellation they charged the room rate to me, tried to many time contact with the hotel they did not response, also booking.com told me that they tried with them but no responseSo they charged 2 nights to me which they did not have to doI don't recommend this hotel to nobody , please think one more time before than your booking</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r406871275-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>406871275</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNBELIEVABLE! </t>
+  </si>
+  <si>
+    <t>The lady at the desk checking in was ok. Customer service overall wasnt good. You have to talk to the front desk agent from behind a glass, tha make it seem as if the area is not safe. The hotel it self was dirty and tacky. I was given a room key to my room after checking in at 4pm. The room is on the second floor, so I took my stuff to the room only to find out that the room was not clean as yet, so i had to walk back to the lobby only to be told, "you'll have to wait because we are short staffed" not even an apology. On top of that they told me I should leave my stuff in the road and go away and come back.UNBELIEVABLE! !! I asked how long I would have to wait, 3 minutes later she said 20mins it will be ready. I went to get something to eat and came back 45min later. The room was tidy, however, strong smell of cleaning products , the bed was not done properly, the pillow smelled funky. I could not stay in that room so I had to check out and find somewhere else to stay because they told me they didn't have another room and no refund. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>The lady at the desk checking in was ok. Customer service overall wasnt good. You have to talk to the front desk agent from behind a glass, tha make it seem as if the area is not safe. The hotel it self was dirty and tacky. I was given a room key to my room after checking in at 4pm. The room is on the second floor, so I took my stuff to the room only to find out that the room was not clean as yet, so i had to walk back to the lobby only to be told, "you'll have to wait because we are short staffed" not even an apology. On top of that they told me I should leave my stuff in the road and go away and come back.UNBELIEVABLE! !! I asked how long I would have to wait, 3 minutes later she said 20mins it will be ready. I went to get something to eat and came back 45min later. The room was tidy, however, strong smell of cleaning products , the bed was not done properly, the pillow smelled funky. I could not stay in that room so I had to check out and find somewhere else to stay because they told me they didn't have another room and no refund. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r371065153-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>371065153</t>
+  </si>
+  <si>
+    <t>05/07/2016</t>
+  </si>
+  <si>
+    <t>Good budget hotel</t>
+  </si>
+  <si>
+    <t>Well first of all you should not expect much. It is a budget hotel at the end. Facility is recently renewed or it looks so. Still could not get why the faucet was out of bathroom??Good: Price, Beds, Room, TV, LocationBad: Breakfast (there is none), wi-fi quality</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r361033764-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>361033764</t>
+  </si>
+  <si>
+    <t>04/02/2016</t>
+  </si>
+  <si>
+    <t>Good Budget Hotel</t>
+  </si>
+  <si>
+    <t>Our room was clean except the hair in the bathtub. Comfortable beds, good looking furniture. There is a microwave and a hair dryer working fine. A good TV which has kids channels. Free parking is another plus.On the other hand wi-fi was weak and don't you ever count on breakfast. We went to breakfast at 8.30 a.m. and this was just half an hour later the breakfast started.  I believe it was just coffee, juice and cereals but there was literally nothing left. Not even milk and there was noone around to ask for. But it is a quiet area and the price is amazing. I would definetly go there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Our room was clean except the hair in the bathtub. Comfortable beds, good looking furniture. There is a microwave and a hair dryer working fine. A good TV which has kids channels. Free parking is another plus.On the other hand wi-fi was weak and don't you ever count on breakfast. We went to breakfast at 8.30 a.m. and this was just half an hour later the breakfast started.  I believe it was just coffee, juice and cereals but there was literally nothing left. Not even milk and there was noone around to ask for. But it is a quiet area and the price is amazing. I would definetly go there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r334963746-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>334963746</t>
+  </si>
+  <si>
+    <t>12/25/2015</t>
+  </si>
+  <si>
+    <t>Wasn't too too bad, but it wasn't that good either!</t>
+  </si>
+  <si>
+    <t>The room could of been a little more cleaner. Bathroom had black mold in it on the walls. The bathroom really needed some work. Grout missing out the floor. The bathroom fan made a horrible noise when you first turned it on, then went away. Smoke detector was broke hanging off the wall. I took pics. It was in November when I visited but the pool and Jacuzzi looked like no one had been in it for a couple months. pool pics didn't look like that on advertisement. It was Gross! Location was convenient. Wifi works, and free parking. Could use a upgrade.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r327186934-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>327186934</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>Perfect value for L.A.</t>
+  </si>
+  <si>
+    <t>Certainly nice and safe place to stay. Pleasant staff, enough parking places, lift to upper floors, very good rooms, decent breakfast. Good location for both L.A. as well as when you are heading west. Comfortable, clean, good wifi.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r317573911-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>317573911</t>
+  </si>
+  <si>
+    <t>10/10/2015</t>
+  </si>
+  <si>
+    <t>WARNING!!!!! Don't make reservations at this hotel.</t>
+  </si>
+  <si>
+    <t>I had a reservation for this hotel on Labor Day weekend (9/5/15) and they claimed they couldn't find it even though the corporate office confirmed it. The staff there has no class or the  decency to apologize for their mistake. I traveled a long way and got a cold shoulder from staff and manager Tina Patel. Stay at your on risk!</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r280477549-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>280477549</t>
+  </si>
+  <si>
+    <t>06/15/2015</t>
+  </si>
+  <si>
+    <t>Nice staff, clean room.</t>
+  </si>
+  <si>
+    <t>The room was clean &amp; comfortable. Housekeepers all genuinely friendly &amp; do a great job. Okay bed, a bit firm, &amp; old 27" tv with 100+ channels. Internet very spotty if it works at all. Okay pool area. Pastries, cereal, juice &amp; coffee for continental breakfast. Easy freeway access to LA Convention center.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r270528061-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>270528061</t>
+  </si>
+  <si>
+    <t>05/07/2015</t>
+  </si>
+  <si>
+    <t>Don't waste your money</t>
+  </si>
+  <si>
+    <t>I booked this room on priceline and was lured by the inexpensive rate.  The hotel offered free breakfast and high speed internet in the rooms.  Saturday 5/2 I checked into my room planning on getting some work done and there was no internet.  I called three times to the front desk to get the internet password.  The network would come up but my phone and computer were unable to connect.  I went to the front desk three time times to try and get the issue resolved (i.e. suggested another room closer to the router) but was denied.  Sadly this hotel cut money out of their budget by purchasing a router that does not extend to all of the rooms that they rent.The room was clean but housekeeping was having a party that day.  Music was loud and there were large groups of employees in the parking lot.Since I could not get my work done I had to check out of this hotel and book another hotel in the area with working internet.  I called priceline, explained the situation, and waited for the representative to call me back.  Management refused to refund my money.  All in all I spent three hours of my time wrestling with this place hoping to get a service that they advertise, and walked away without my money and ended up submitting my homework late that night at another hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this room on priceline and was lured by the inexpensive rate.  The hotel offered free breakfast and high speed internet in the rooms.  Saturday 5/2 I checked into my room planning on getting some work done and there was no internet.  I called three times to the front desk to get the internet password.  The network would come up but my phone and computer were unable to connect.  I went to the front desk three time times to try and get the issue resolved (i.e. suggested another room closer to the router) but was denied.  Sadly this hotel cut money out of their budget by purchasing a router that does not extend to all of the rooms that they rent.The room was clean but housekeeping was having a party that day.  Music was loud and there were large groups of employees in the parking lot.Since I could not get my work done I had to check out of this hotel and book another hotel in the area with working internet.  I called priceline, explained the situation, and waited for the representative to call me back.  Management refused to refund my money.  All in all I spent three hours of my time wrestling with this place hoping to get a service that they advertise, and walked away without my money and ended up submitting my homework late that night at another hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r257311092-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>257311092</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t>Average Hotel with free breakfast and free WiFi</t>
+  </si>
+  <si>
+    <t>The hotel was decent with average facilities.1) Both the keys to our room didn't work immediately  after check-inn. I had to go back again the reception lobby to get the keys reconfigured. This time I got lucky and one key worked.2) The next day when we came back from site-seeing, both the keys didn't work. Had to go back again to the reception to get reconfigured.3) The hotel says free wifi, but the person at the reception has no idea what is the wifi name and password. After asking(calling the receptionist 3-4 times from the room), eventually we cracked the password. Phew!!!!4) The breakfast is very minimal with only cereals, coffee and juice. And the timings are also not very accommodating - 8am-10am.5) One day we had to leave early(by 7am), thus requested them to open the breakfast by 7am. Luckily they obliged and let us have breakfast at 7am.6) Room service came everyday to change the linen and toiletries. The room was clean when we came back from the local tourist attractions.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>The hotel was decent with average facilities.1) Both the keys to our room didn't work immediately  after check-inn. I had to go back again the reception lobby to get the keys reconfigured. This time I got lucky and one key worked.2) The next day when we came back from site-seeing, both the keys didn't work. Had to go back again to the reception to get reconfigured.3) The hotel says free wifi, but the person at the reception has no idea what is the wifi name and password. After asking(calling the receptionist 3-4 times from the room), eventually we cracked the password. Phew!!!!4) The breakfast is very minimal with only cereals, coffee and juice. And the timings are also not very accommodating - 8am-10am.5) One day we had to leave early(by 7am), thus requested them to open the breakfast by 7am. Luckily they obliged and let us have breakfast at 7am.6) Room service came everyday to change the linen and toiletries. The room was clean when we came back from the local tourist attractions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r214159221-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>214159221</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>Bad service</t>
+  </si>
+  <si>
+    <t>Seriously bad service.  They guy was rude and patronizing. He said I HAD to use my own card to pay for the room and wouldn't let my husband pay. We even had to drive out of the way to the bank because of this. Horrible. He also gave us keys to someone elses room...insisted no one was in there and then had an epiphany after we walked away. Spa and pool close by 6pm and breakfast was extremely minimal and from 8am -10am, which isn't convenient if you need to leave early. Oh and they only have two tables to eat at, but you cannot take food into your room!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Seriously bad service.  They guy was rude and patronizing. He said I HAD to use my own card to pay for the room and wouldn't let my husband pay. We even had to drive out of the way to the bank because of this. Horrible. He also gave us keys to someone elses room...insisted no one was in there and then had an epiphany after we walked away. Spa and pool close by 6pm and breakfast was extremely minimal and from 8am -10am, which isn't convenient if you need to leave early. Oh and they only have two tables to eat at, but you cannot take food into your room!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r212837153-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>212837153</t>
+  </si>
+  <si>
+    <t>06/30/2014</t>
+  </si>
+  <si>
+    <t>WORST HOTEL EVER you would have better luck staying in a motel 6 honestly. The only reason Im giving a 1 is there's no 0</t>
+  </si>
+  <si>
+    <t>Stayed there 3 night unfortunately and on the first night we got there they gave us a smoking room when we had booked a non smoking room we explained to them after we had called twice to verify that we would be there that we needed a non smoking room due to having kids that can't be around that all the manager did was say "call expedia"  because they had given all the non smoking rooms away by the time we got there not only was it a smoking room but it had no locks in the hotel and the window was broken. After trying to find a different hotel for hours and being unsuccessful since it was already 11 at night we complied again to get a new room the next day which was't much better at all there was mold in the bathroom. This definitely isn't a place to go for a peaceful vacation. The entire time we were there there were loud parties going on to the point the walls would shake and when we called the front office all they said was it would be ending soon which it never did because every hour we were worken up by the loud speakers microphone and people. If you don't know Spanish you won't get much help here. Also they advertise a "hot tub" by the pool but it doesn't work. Long story short I would not recommend...Stayed there 3 night unfortunately and on the first night we got there they gave us a smoking room when we had booked a non smoking room we explained to them after we had called twice to verify that we would be there that we needed a non smoking room due to having kids that can't be around that all the manager did was say "call expedia"  because they had given all the non smoking rooms away by the time we got there not only was it a smoking room but it had no locks in the hotel and the window was broken. After trying to find a different hotel for hours and being unsuccessful since it was already 11 at night we complied again to get a new room the next day which was't much better at all there was mold in the bathroom. This definitely isn't a place to go for a peaceful vacation. The entire time we were there there were loud parties going on to the point the walls would shake and when we called the front office all they said was it would be ending soon which it never did because every hour we were worken up by the loud speakers microphone and people. If you don't know Spanish you won't get much help here. Also they advertise a "hot tub" by the pool but it doesn't work. Long story short I would not recommend this place at all. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed there 3 night unfortunately and on the first night we got there they gave us a smoking room when we had booked a non smoking room we explained to them after we had called twice to verify that we would be there that we needed a non smoking room due to having kids that can't be around that all the manager did was say "call expedia"  because they had given all the non smoking rooms away by the time we got there not only was it a smoking room but it had no locks in the hotel and the window was broken. After trying to find a different hotel for hours and being unsuccessful since it was already 11 at night we complied again to get a new room the next day which was't much better at all there was mold in the bathroom. This definitely isn't a place to go for a peaceful vacation. The entire time we were there there were loud parties going on to the point the walls would shake and when we called the front office all they said was it would be ending soon which it never did because every hour we were worken up by the loud speakers microphone and people. If you don't know Spanish you won't get much help here. Also they advertise a "hot tub" by the pool but it doesn't work. Long story short I would not recommend...Stayed there 3 night unfortunately and on the first night we got there they gave us a smoking room when we had booked a non smoking room we explained to them after we had called twice to verify that we would be there that we needed a non smoking room due to having kids that can't be around that all the manager did was say "call expedia"  because they had given all the non smoking rooms away by the time we got there not only was it a smoking room but it had no locks in the hotel and the window was broken. After trying to find a different hotel for hours and being unsuccessful since it was already 11 at night we complied again to get a new room the next day which was't much better at all there was mold in the bathroom. This definitely isn't a place to go for a peaceful vacation. The entire time we were there there were loud parties going on to the point the walls would shake and when we called the front office all they said was it would be ending soon which it never did because every hour we were worken up by the loud speakers microphone and people. If you don't know Spanish you won't get much help here. Also they advertise a "hot tub" by the pool but it doesn't work. Long story short I would not recommend this place at all. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r201623808-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>201623808</t>
+  </si>
+  <si>
+    <t>04/17/2014</t>
+  </si>
+  <si>
+    <t>Dirty! Gave my kids a skin rash!</t>
+  </si>
+  <si>
+    <t>Mold in Bathroom, guys smoking weed in parking lot, sheets had holes in them. Very dusty room and I think they had dogs in that room. It immediately made my allergies worse. My two kids woke up with a skin rash all over their arms, I think due to the dirty sheets or maybe just dirty room. Stains on Mattress, chair and all over carpet. The people working there were very friendly, but most of them only spoke Spanish, so if not a Spanish speaking person you might have a hard time communicating with them.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r146259207-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>146259207</t>
+  </si>
+  <si>
+    <t>11/26/2012</t>
+  </si>
+  <si>
+    <t>O.K. for the younger set</t>
+  </si>
+  <si>
+    <t>The room was immaculately clean, and it did have both a fridge and microwave. There was a desk and another table. There were two things that made the experience unpleasant for me.  One was that I  told both the booking agency and the girl at the desk that I have bad knees and find stairs and walking distances while I am carrying things difficult.  They thought that having an elevator was sufficient, and it would have been if my room had been close to the elevator  It was not.I did not eat the free breakfast because it would have meant much more walking The other thing was that the bathtub was so narrow it was almost unusable as a bathtub.  I might stay again if I could get a first floor room, but not otherwise.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>The room was immaculately clean, and it did have both a fridge and microwave. There was a desk and another table. There were two things that made the experience unpleasant for me.  One was that I  told both the booking agency and the girl at the desk that I have bad knees and find stairs and walking distances while I am carrying things difficult.  They thought that having an elevator was sufficient, and it would have been if my room had been close to the elevator  It was not.I did not eat the free breakfast because it would have meant much more walking The other thing was that the bathtub was so narrow it was almost unusable as a bathtub.  I might stay again if I could get a first floor room, but not otherwise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r135665120-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>135665120</t>
+  </si>
+  <si>
+    <t>07/28/2012</t>
+  </si>
+  <si>
+    <t>HELLHOUSE sounds more like it then GUESTHOUSE</t>
+  </si>
+  <si>
+    <t>, This makes the do Not Stay list for sure. Sad part I stayed there for 3 weeks, rooms were ok but customer service SUCKS big time. I have been in contact with their Corp office for 3 weeks yet and I agree with what ETracker said OWNER IS THE WORST. But the way Corp, is handling it now theyre almost tied , Only thing worst then the owner is the BED BUGS that were in my room. Elevators not only didnt work but are way past city code inspections. When asked if I could move from 3flr to 1st they pulled the Sorry NO ENGLISH  crap..I'm putting my money on the Chicago Cubs to win the World Series before I even get a call back from the owner or the $80,refund I am requesting. Im thinking once the City Health Dept and Code Dept hear from me theyre gonna wish they acted quicker.Shame to see last good review was 7 yrs agoMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>, This makes the do Not Stay list for sure. Sad part I stayed there for 3 weeks, rooms were ok but customer service SUCKS big time. I have been in contact with their Corp office for 3 weeks yet and I agree with what ETracker said OWNER IS THE WORST. But the way Corp, is handling it now theyre almost tied , Only thing worst then the owner is the BED BUGS that were in my room. Elevators not only didnt work but are way past city code inspections. When asked if I could move from 3flr to 1st they pulled the Sorry NO ENGLISH  crap..I'm putting my money on the Chicago Cubs to win the World Series before I even get a call back from the owner or the $80,refund I am requesting. Im thinking once the City Health Dept and Code Dept hear from me theyre gonna wish they acted quicker.Shame to see last good review was 7 yrs agoMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r118731249-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>118731249</t>
+  </si>
+  <si>
+    <t>09/29/2011</t>
+  </si>
+  <si>
+    <t>A True Nightmare, this is my letter to guesthouse intl corporate office</t>
+  </si>
+  <si>
+    <t>I am a business traveler and stay in hotels about 8 months out of the year. Today is September 29th 2011. This dump is the worst experience I have ever had. The owners are the worst I've ever seen. I got here yesterday after booking thru hotwire.com. I have had to change rooms 5 times. the last room I was moved to smelled like a urinal and there was a used condom laying on the floor next to the bed, which I took two photos of before the girl at the front desk came up an removed it. A hispanic housekeeper was rude and Mr Patel the owner never bothered to show his face to offer any help and never apologized for the most mizerable stay i my life. P/S The night clerk was unable to fix the toilet, so if i have to go, i have to use the bathroom in another out of order romm down the hall. I will never forget this experience. As for your corporate offices, I called several times yesterday and left two voicemails, your offices still have not called me back. I have been designing, maintaining and marketing websites for hotels since 2002. If anyone has the resources and the experience to seriously damage the reputation of any hotel or brand, it's me. I paid one of your hotels good money to be treated like dirt on top of everything else and nobody...I am a business traveler and stay in hotels about 8 months out of the year. Today is September 29th 2011. This dump is the worst experience I have ever had. The owners are the worst I've ever seen. I got here yesterday after booking thru hotwire.com. I have had to change rooms 5 times. the last room I was moved to smelled like a urinal and there was a used condom laying on the floor next to the bed, which I took two photos of before the girl at the front desk came up an removed it. A hispanic housekeeper was rude and Mr Patel the owner never bothered to show his face to offer any help and never apologized for the most mizerable stay i my life. P/S The night clerk was unable to fix the toilet, so if i have to go, i have to use the bathroom in another out of order romm down the hall. I will never forget this experience. As for your corporate offices, I called several times yesterday and left two voicemails, your offices still have not called me back. I have been designing, maintaining and marketing websites for hotels since 2002. If anyone has the resources and the experience to seriously damage the reputation of any hotel or brand, it's me. I paid one of your hotels good money to be treated like dirt on top of everything else and nobody from this hotel or your corporate office has offered any customer service at all. You should start seeing the results for your poorly manage and maintazined hotels very soon. If I do not receive proper customer service for this nightmare, you will find it much harder selling your brand to new properties. If this goes unaddressed, I will spend all my time for the next 6 months sharing my photos and recordings with your peers. That shopuld give you a good isea about how badly I was treated. Several of the employees here felt deeply for me. They obviously know that the owners don't care about their customers. I did absolutely nothing to deserve any of this.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>I am a business traveler and stay in hotels about 8 months out of the year. Today is September 29th 2011. This dump is the worst experience I have ever had. The owners are the worst I've ever seen. I got here yesterday after booking thru hotwire.com. I have had to change rooms 5 times. the last room I was moved to smelled like a urinal and there was a used condom laying on the floor next to the bed, which I took two photos of before the girl at the front desk came up an removed it. A hispanic housekeeper was rude and Mr Patel the owner never bothered to show his face to offer any help and never apologized for the most mizerable stay i my life. P/S The night clerk was unable to fix the toilet, so if i have to go, i have to use the bathroom in another out of order romm down the hall. I will never forget this experience. As for your corporate offices, I called several times yesterday and left two voicemails, your offices still have not called me back. I have been designing, maintaining and marketing websites for hotels since 2002. If anyone has the resources and the experience to seriously damage the reputation of any hotel or brand, it's me. I paid one of your hotels good money to be treated like dirt on top of everything else and nobody...I am a business traveler and stay in hotels about 8 months out of the year. Today is September 29th 2011. This dump is the worst experience I have ever had. The owners are the worst I've ever seen. I got here yesterday after booking thru hotwire.com. I have had to change rooms 5 times. the last room I was moved to smelled like a urinal and there was a used condom laying on the floor next to the bed, which I took two photos of before the girl at the front desk came up an removed it. A hispanic housekeeper was rude and Mr Patel the owner never bothered to show his face to offer any help and never apologized for the most mizerable stay i my life. P/S The night clerk was unable to fix the toilet, so if i have to go, i have to use the bathroom in another out of order romm down the hall. I will never forget this experience. As for your corporate offices, I called several times yesterday and left two voicemails, your offices still have not called me back. I have been designing, maintaining and marketing websites for hotels since 2002. If anyone has the resources and the experience to seriously damage the reputation of any hotel or brand, it's me. I paid one of your hotels good money to be treated like dirt on top of everything else and nobody from this hotel or your corporate office has offered any customer service at all. You should start seeing the results for your poorly manage and maintazined hotels very soon. If I do not receive proper customer service for this nightmare, you will find it much harder selling your brand to new properties. If this goes unaddressed, I will spend all my time for the next 6 months sharing my photos and recordings with your peers. That shopuld give you a good isea about how badly I was treated. Several of the employees here felt deeply for me. They obviously know that the owners don't care about their customers. I did absolutely nothing to deserve any of this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r4371754-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>4371754</t>
+  </si>
+  <si>
+    <t>01/22/2006</t>
+  </si>
+  <si>
+    <t>Great Hotel only Minutes from Disneyland</t>
+  </si>
+  <si>
+    <t>We recently stayed at the Guesthouse in Pico Rivera after finding this hotel on Hotwire.com.  We were able to book a room through the hotel website at (-)guesthouseintl(-) at a rate of $65.99 for a room with 2 queen beds.  The hotel was very nice and clean.  Beds were comfortable and the staff was friendly and helpful.  Even though we didn't check in until after midnight the first night, the staff was willing to get us whatever we needed.  The continental breakfast consisted of coffee, donuts and muffins (real donunts from a bakery).  The drive to Disneyland was less than 15 minutes.  We normally try to get a hotel closer to Disneyland, but we will be using this hotel again - it was worth the short drive for a clean room.MoreShow less</t>
+  </si>
+  <si>
+    <t>We recently stayed at the Guesthouse in Pico Rivera after finding this hotel on Hotwire.com.  We were able to book a room through the hotel website at (-)guesthouseintl(-) at a rate of $65.99 for a room with 2 queen beds.  The hotel was very nice and clean.  Beds were comfortable and the staff was friendly and helpful.  Even though we didn't check in until after midnight the first night, the staff was willing to get us whatever we needed.  The continental breakfast consisted of coffee, donuts and muffins (real donunts from a bakery).  The drive to Disneyland was less than 15 minutes.  We normally try to get a hotel closer to Disneyland, but we will be using this hotel again - it was worth the short drive for a clean room.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1035,1169 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>165</v>
+      </c>
+      <c r="O19" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" t="s">
+        <v>170</v>
+      </c>
+      <c r="L20" t="s">
+        <v>171</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_305.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_305.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>GoncaloFlores</t>
+  </si>
+  <si>
     <t>07/02/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>dustinh67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r510810055-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r500081829-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Skippy_DRB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r406871275-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>The lady at the desk checking in was ok. Customer service overall wasnt good. You have to talk to the front desk agent from behind a glass, tha make it seem as if the area is not safe. The hotel it self was dirty and tacky. I was given a room key to my room after checking in at 4pm. The room is on the second floor, so I took my stuff to the room only to find out that the room was not clean as yet, so i had to walk back to the lobby only to be told, "you'll have to wait because we are short staffed" not even an apology. On top of that they told me I should leave my stuff in the road and go away and come back.UNBELIEVABLE! !! I asked how long I would have to wait, 3 minutes later she said 20mins it will be ready. I went to get something to eat and came back 45min later. The room was tidy, however, strong smell of cleaning products , the bed was not done properly, the pillow smelled funky. I could not stay in that room so I had to check out and find somewhere else to stay because they told me they didn't have another room and no refund. More</t>
   </si>
   <si>
+    <t>Nergis V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r371065153-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>_nergissongur</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r361033764-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t>Our room was clean except the hair in the bathtub. Comfortable beds, good looking furniture. There is a microwave and a hair dryer working fine. A good TV which has kids channels. Free parking is another plus.On the other hand wi-fi was weak and don't you ever count on breakfast. We went to breakfast at 8.30 a.m. and this was just half an hour later the breakfast started.  I believe it was just coffee, juice and cereals but there was literally nothing left. Not even milk and there was noone around to ask for. But it is a quiet area and the price is amazing. I would definetly go there again.More</t>
   </si>
   <si>
+    <t>Buttacup_k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r334963746-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Gudmundur O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r327186934-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -324,6 +348,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>S P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r317573911-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -342,6 +369,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Jahmok</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r280477549-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -360,6 +390,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>danistimberland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r270528061-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -378,6 +411,9 @@
     <t>I booked this room on priceline and was lured by the inexpensive rate.  The hotel offered free breakfast and high speed internet in the rooms.  Saturday 5/2 I checked into my room planning on getting some work done and there was no internet.  I called three times to the front desk to get the internet password.  The network would come up but my phone and computer were unable to connect.  I went to the front desk three time times to try and get the issue resolved (i.e. suggested another room closer to the router) but was denied.  Sadly this hotel cut money out of their budget by purchasing a router that does not extend to all of the rooms that they rent.The room was clean but housekeeping was having a party that day.  Music was loud and there were large groups of employees in the parking lot.Since I could not get my work done I had to check out of this hotel and book another hotel in the area with working internet.  I called priceline, explained the situation, and waited for the representative to call me back.  Management refused to refund my money.  All in all I spent three hours of my time wrestling with this place hoping to get a service that they advertise, and walked away without my money and ended up submitting my homework late that night at another hotel.More</t>
   </si>
   <si>
+    <t>AnonD28</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r257311092-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -399,6 +435,9 @@
     <t>The hotel was decent with average facilities.1) Both the keys to our room didn't work immediately  after check-inn. I had to go back again the reception lobby to get the keys reconfigured. This time I got lucky and one key worked.2) The next day when we came back from site-seeing, both the keys didn't work. Had to go back again to the reception to get reconfigured.3) The hotel says free wifi, but the person at the reception has no idea what is the wifi name and password. After asking(calling the receptionist 3-4 times from the room), eventually we cracked the password. Phew!!!!4) The breakfast is very minimal with only cereals, coffee and juice. And the timings are also not very accommodating - 8am-10am.5) One day we had to leave early(by 7am), thus requested them to open the breakfast by 7am. Luckily they obliged and let us have breakfast at 7am.6) Room service came everyday to change the linen and toiletries. The room was clean when we came back from the local tourist attractions.More</t>
   </si>
   <si>
+    <t>kyosenshi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r214159221-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -420,6 +459,9 @@
     <t>Seriously bad service.  They guy was rude and patronizing. He said I HAD to use my own card to pay for the room and wouldn't let my husband pay. We even had to drive out of the way to the bank because of this. Horrible. He also gave us keys to someone elses room...insisted no one was in there and then had an epiphany after we walked away. Spa and pool close by 6pm and breakfast was extremely minimal and from 8am -10am, which isn't convenient if you need to leave early. Oh and they only have two tables to eat at, but you cannot take food into your room!More</t>
   </si>
   <si>
+    <t>Ashlie P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r212837153-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -438,6 +480,9 @@
     <t>Stayed there 3 night unfortunately and on the first night we got there they gave us a smoking room when we had booked a non smoking room we explained to them after we had called twice to verify that we would be there that we needed a non smoking room due to having kids that can't be around that all the manager did was say "call expedia"  because they had given all the non smoking rooms away by the time we got there not only was it a smoking room but it had no locks in the hotel and the window was broken. After trying to find a different hotel for hours and being unsuccessful since it was already 11 at night we complied again to get a new room the next day which was't much better at all there was mold in the bathroom. This definitely isn't a place to go for a peaceful vacation. The entire time we were there there were loud parties going on to the point the walls would shake and when we called the front office all they said was it would be ending soon which it never did because every hour we were worken up by the loud speakers microphone and people. If you don't know Spanish you won't get much help here. Also they advertise a "hot tub" by the pool but it doesn't work. Long story short I would not recommend...Stayed there 3 night unfortunately and on the first night we got there they gave us a smoking room when we had booked a non smoking room we explained to them after we had called twice to verify that we would be there that we needed a non smoking room due to having kids that can't be around that all the manager did was say "call expedia"  because they had given all the non smoking rooms away by the time we got there not only was it a smoking room but it had no locks in the hotel and the window was broken. After trying to find a different hotel for hours and being unsuccessful since it was already 11 at night we complied again to get a new room the next day which was't much better at all there was mold in the bathroom. This definitely isn't a place to go for a peaceful vacation. The entire time we were there there were loud parties going on to the point the walls would shake and when we called the front office all they said was it would be ending soon which it never did because every hour we were worken up by the loud speakers microphone and people. If you don't know Spanish you won't get much help here. Also they advertise a "hot tub" by the pool but it doesn't work. Long story short I would not recommend this place at all. More</t>
   </si>
   <si>
+    <t>ezsarabia1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r201623808-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -456,6 +501,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Brenda G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r146259207-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -477,6 +525,9 @@
     <t>The room was immaculately clean, and it did have both a fridge and microwave. There was a desk and another table. There were two things that made the experience unpleasant for me.  One was that I  told both the booking agency and the girl at the desk that I have bad knees and find stairs and walking distances while I am carrying things difficult.  They thought that having an elevator was sufficient, and it would have been if my room had been close to the elevator  It was not.I did not eat the free breakfast because it would have meant much more walking The other thing was that the bathtub was so narrow it was almost unusable as a bathtub.  I might stay again if I could get a first floor room, but not otherwise.More</t>
   </si>
   <si>
+    <t>lou M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r135665120-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -498,6 +549,9 @@
     <t>, This makes the do Not Stay list for sure. Sad part I stayed there for 3 weeks, rooms were ok but customer service SUCKS big time. I have been in contact with their Corp office for 3 weeks yet and I agree with what ETracker said OWNER IS THE WORST. But the way Corp, is handling it now theyre almost tied , Only thing worst then the owner is the BED BUGS that were in my room. Elevators not only didnt work but are way past city code inspections. When asked if I could move from 3flr to 1st they pulled the Sorry NO ENGLISH  crap..I'm putting my money on the Chicago Cubs to win the World Series before I even get a call back from the owner or the $80,refund I am requesting. Im thinking once the City Health Dept and Code Dept hear from me theyre gonna wish they acted quicker.Shame to see last good review was 7 yrs agoMore</t>
   </si>
   <si>
+    <t>ETtracker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r118731249-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -517,6 +571,9 @@
   </si>
   <si>
     <t>I am a business traveler and stay in hotels about 8 months out of the year. Today is September 29th 2011. This dump is the worst experience I have ever had. The owners are the worst I've ever seen. I got here yesterday after booking thru hotwire.com. I have had to change rooms 5 times. the last room I was moved to smelled like a urinal and there was a used condom laying on the floor next to the bed, which I took two photos of before the girl at the front desk came up an removed it. A hispanic housekeeper was rude and Mr Patel the owner never bothered to show his face to offer any help and never apologized for the most mizerable stay i my life. P/S The night clerk was unable to fix the toilet, so if i have to go, i have to use the bathroom in another out of order romm down the hall. I will never forget this experience. As for your corporate offices, I called several times yesterday and left two voicemails, your offices still have not called me back. I have been designing, maintaining and marketing websites for hotels since 2002. If anyone has the resources and the experience to seriously damage the reputation of any hotel or brand, it's me. I paid one of your hotels good money to be treated like dirt on top of everything else and nobody...I am a business traveler and stay in hotels about 8 months out of the year. Today is September 29th 2011. This dump is the worst experience I have ever had. The owners are the worst I've ever seen. I got here yesterday after booking thru hotwire.com. I have had to change rooms 5 times. the last room I was moved to smelled like a urinal and there was a used condom laying on the floor next to the bed, which I took two photos of before the girl at the front desk came up an removed it. A hispanic housekeeper was rude and Mr Patel the owner never bothered to show his face to offer any help and never apologized for the most mizerable stay i my life. P/S The night clerk was unable to fix the toilet, so if i have to go, i have to use the bathroom in another out of order romm down the hall. I will never forget this experience. As for your corporate offices, I called several times yesterday and left two voicemails, your offices still have not called me back. I have been designing, maintaining and marketing websites for hotels since 2002. If anyone has the resources and the experience to seriously damage the reputation of any hotel or brand, it's me. I paid one of your hotels good money to be treated like dirt on top of everything else and nobody from this hotel or your corporate office has offered any customer service at all. You should start seeing the results for your poorly manage and maintazined hotels very soon. If I do not receive proper customer service for this nightmare, you will find it much harder selling your brand to new properties. If this goes unaddressed, I will spend all my time for the next 6 months sharing my photos and recordings with your peers. That shopuld give you a good isea about how badly I was treated. Several of the employees here felt deeply for me. They obviously know that the owners don't care about their customers. I did absolutely nothing to deserve any of this.More</t>
+  </si>
+  <si>
+    <t>Debbie G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r4371754-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
@@ -1039,43 +1096,47 @@
       <c r="A2" t="n">
         <v>44940</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>181594</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1093,50 +1154,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>44940</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>181595</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -1156,50 +1221,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>44940</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1213,50 +1282,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>44940</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>181596</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1270,50 +1343,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>44940</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>181597</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1327,50 +1404,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>44940</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>181598</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -1390,50 +1471,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>44940</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>181599</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1451,50 +1536,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>44940</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>181600</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1512,50 +1601,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>44940</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>181601</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1571,50 +1664,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>44940</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>181602</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1628,50 +1725,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>44940</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>181603</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -1691,50 +1792,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>44940</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>181604</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -1754,50 +1859,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>44940</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>181605</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1811,41 +1920,45 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>44940</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>181606</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
@@ -1874,50 +1987,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>44940</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>181607</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -1941,50 +2058,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>44940</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>17187</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2008,50 +2129,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>44940</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>181608</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="O18" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -2075,50 +2200,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>44940</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>181609</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="O19" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -2142,41 +2271,45 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>44940</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>8133</v>
+      </c>
+      <c r="C20" t="s">
+        <v>185</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="J20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="K20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="L20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
@@ -2195,7 +2328,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_305.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_305.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="266">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>GoncaloFlores</t>
-  </si>
-  <si>
-    <t>07/02/2018</t>
+    <t>09/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r597023086-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>32879</t>
+  </si>
+  <si>
+    <t>240887</t>
+  </si>
+  <si>
+    <t>597023086</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Great Bargain</t>
+  </si>
+  <si>
+    <t>Booked this 2 Star Motel to stop in for 3 nights after flying into LA not expecting much and this was a pleasant surprise.Check-in was easy, ample parking. Good Size Bed and Room with Fridge. Free Ice. Clean with Good Maid Service. 30 Minute drive from everything in LA. Friendly Staff. Free WifiBreakfast was Basic, Coffee, Cereal and a selection of pre-packed pastries.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r586072049-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>586072049</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>Convenient to LA and Long Beach</t>
+  </si>
+  <si>
+    <t>We stayed here because the price was competitive and it was easily accessible to both LA and Long Beach. Check-in and check out were easy, and the staff was respectful and courteous. The room we had was large and not terribly noisy (just a bit of traffic as we were on the street side, but nothing a pair of earplugs didn't resolve). Due to the price and location, we'll be staying here again next time we're in the area.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r552352510-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>552352510</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spacious clean rooms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very spacious, comfortable and clean rooms with fridge and microwave for some in-room comforts. Simple breakfast of coffee, cereal and pastries provided. Good wifi coverage. This place was perfect for our stay. Easily located near to 605. </t>
+  </si>
+  <si>
+    <t>January 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r524618113-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
-    <t>32879</t>
-  </si>
-  <si>
-    <t>240887</t>
-  </si>
-  <si>
     <t>524618113</t>
   </si>
   <si>
@@ -180,12 +237,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>dustinh67</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r510810055-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -207,9 +258,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r500081829-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -228,10 +276,40 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Skippy_DRB</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r443331317-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>443331317</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t>Nice place. Good location</t>
+  </si>
+  <si>
+    <t>Nice. Not fancy, but clean &amp; fair value. Rate includes breakfast--continental (pastries, cold cereal, coffee, juice &amp; milk). Rooms have small microwave &amp; mini-bar-sized frig, which is very convenient. Only gripe: No ice at hotel (BYOI).</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r435137275-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>435137275</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>Not good</t>
+  </si>
+  <si>
+    <t>Terrible experience here don't believe the website the information and pictures are not up to date.first they told me they could not make change this hotel doesn't "make change" either pay the exact amount or they keep your change. Then the tv didn't work had to change rooms. The ice machine and vending machine didn't work.went to the front lobby they said its not working their is water in the breakfast room I go over their the water is empty I go back to my room their is stuff stuck to the carpet the bedskirt is filthy the pillows looked like a cat had brushed against them they had so much hair . The soap was sticky the shampoo was half empty and the toilet was clogged and there was needles and condom boxes in the parking area.do yourself a favor and don't stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Terrible experience here don't believe the website the information and pictures are not up to date.first they told me they could not make change this hotel doesn't "make change" either pay the exact amount or they keep your change. Then the tv didn't work had to change rooms. The ice machine and vending machine didn't work.went to the front lobby they said its not working their is water in the breakfast room I go over their the water is empty I go back to my room their is stuff stuck to the carpet the bedskirt is filthy the pillows looked like a cat had brushed against them they had so much hair . The soap was sticky the shampoo was half empty and the toilet was clogged and there was needles and condom boxes in the parking area.do yourself a favor and don't stay here.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r406871275-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
@@ -255,9 +333,6 @@
     <t>The lady at the desk checking in was ok. Customer service overall wasnt good. You have to talk to the front desk agent from behind a glass, tha make it seem as if the area is not safe. The hotel it self was dirty and tacky. I was given a room key to my room after checking in at 4pm. The room is on the second floor, so I took my stuff to the room only to find out that the room was not clean as yet, so i had to walk back to the lobby only to be told, "you'll have to wait because we are short staffed" not even an apology. On top of that they told me I should leave my stuff in the road and go away and come back.UNBELIEVABLE! !! I asked how long I would have to wait, 3 minutes later she said 20mins it will be ready. I went to get something to eat and came back 45min later. The room was tidy, however, strong smell of cleaning products , the bed was not done properly, the pillow smelled funky. I could not stay in that room so I had to check out and find somewhere else to stay because they told me they didn't have another room and no refund. More</t>
   </si>
   <si>
-    <t>Nergis V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r371065153-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -279,9 +354,6 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>_nergissongur</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r361033764-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -303,7 +375,43 @@
     <t>Our room was clean except the hair in the bathtub. Comfortable beds, good looking furniture. There is a microwave and a hair dryer working fine. A good TV which has kids channels. Free parking is another plus.On the other hand wi-fi was weak and don't you ever count on breakfast. We went to breakfast at 8.30 a.m. and this was just half an hour later the breakfast started.  I believe it was just coffee, juice and cereals but there was literally nothing left. Not even milk and there was noone around to ask for. But it is a quiet area and the price is amazing. I would definetly go there again.More</t>
   </si>
   <si>
-    <t>Buttacup_k</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r353134441-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>353134441</t>
+  </si>
+  <si>
+    <t>03/05/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More like a 3star than anything else </t>
+  </si>
+  <si>
+    <t>There is a sign in the reception that reads: The facility contains chemicals known to the state of california to cause cancer, birth defects and reproductive harm.. I have added the pictures in case you do not believe me. If there is anyone that should have any credit for the positive reviews of this hotel, it should be the cleaners.. They are relentless when it comes to providing a clean environment, so much so that at times the toxins from the cleaning products seem overwhelming.The breakfast is basically nonexistent, with only enough items for the hotel to claim they have breakfast but not actually enough items to make you want to eat there. It is located in a residential part of pico rivera which is about 25minutes from downtown if there is no traffic. The pool and jacuzzi should only be used if you don't mind getting HIV.  MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>There is a sign in the reception that reads: The facility contains chemicals known to the state of california to cause cancer, birth defects and reproductive harm.. I have added the pictures in case you do not believe me. If there is anyone that should have any credit for the positive reviews of this hotel, it should be the cleaners.. They are relentless when it comes to providing a clean environment, so much so that at times the toxins from the cleaning products seem overwhelming.The breakfast is basically nonexistent, with only enough items for the hotel to claim they have breakfast but not actually enough items to make you want to eat there. It is located in a residential part of pico rivera which is about 25minutes from downtown if there is no traffic. The pool and jacuzzi should only be used if you don't mind getting HIV.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r336108792-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>336108792</t>
+  </si>
+  <si>
+    <t>12/30/2015</t>
+  </si>
+  <si>
+    <t>Wi-fi a lie</t>
+  </si>
+  <si>
+    <t>For location and cost my family and I stayed at the Pico Riviera location, our worst stay yet. They offered Internet and there was none, our microwave oven did not work and we had to wait for a day for a replacement, the refrigerator was almost useless, the phone was totally useless we had to walk to the office each time we needed to communicate the issues, which were not priority for all the complaining guests. There were too many dissatisfying findings for me to recommend this hotel to anyone.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r334963746-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
@@ -324,9 +432,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>Gudmundur O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r327186934-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -348,9 +453,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>S P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r317573911-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -369,7 +471,40 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>Jahmok</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r296406280-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>296406280</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>I stayed a week here and was pleasantly surprised by the hotel.  It had free wi-fi, over 200 cable channels (old TV however) a refrigerator and a microwave.  My room was newly renovated and was very comfortable.  The only problem was the construction workers doing renovations during the day but I wasn't around much in the day so it didn't bother me.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r288629888-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>288629888</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>Not a bad place if you just need a place to sleep at night</t>
+  </si>
+  <si>
+    <t>My best friend and I, both 24 males, were just looking for a hotel to crash at night after being out exploring the city all day. We stayed from May 15-17 and this place does the trick.The room was clean and had a nice little LCD TV with a pretty good amount of channel selections. The beds weren't the most comfortable but it wasn't something that kept me up at night. The WiFi was a bit spotty and didn't work at times. There is a 7/11 that is a 2 minute walk from the hotel that I took advantage of their hot dog and soda combo for 2 bucks to save money on a cheap quick bit. Easy access to the highway. Overall I would recommend this location for just as a place to catch some zzzzzz.MoreShow less</t>
+  </si>
+  <si>
+    <t>My best friend and I, both 24 males, were just looking for a hotel to crash at night after being out exploring the city all day. We stayed from May 15-17 and this place does the trick.The room was clean and had a nice little LCD TV with a pretty good amount of channel selections. The beds weren't the most comfortable but it wasn't something that kept me up at night. The WiFi was a bit spotty and didn't work at times. There is a 7/11 that is a 2 minute walk from the hotel that I took advantage of their hot dog and soda combo for 2 bucks to save money on a cheap quick bit. Easy access to the highway. Overall I would recommend this location for just as a place to catch some zzzzzz.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r280477549-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
@@ -390,9 +525,6 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t>danistimberland</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r270528061-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -411,9 +543,6 @@
     <t>I booked this room on priceline and was lured by the inexpensive rate.  The hotel offered free breakfast and high speed internet in the rooms.  Saturday 5/2 I checked into my room planning on getting some work done and there was no internet.  I called three times to the front desk to get the internet password.  The network would come up but my phone and computer were unable to connect.  I went to the front desk three time times to try and get the issue resolved (i.e. suggested another room closer to the router) but was denied.  Sadly this hotel cut money out of their budget by purchasing a router that does not extend to all of the rooms that they rent.The room was clean but housekeeping was having a party that day.  Music was loud and there were large groups of employees in the parking lot.Since I could not get my work done I had to check out of this hotel and book another hotel in the area with working internet.  I called priceline, explained the situation, and waited for the representative to call me back.  Management refused to refund my money.  All in all I spent three hours of my time wrestling with this place hoping to get a service that they advertise, and walked away without my money and ended up submitting my homework late that night at another hotel.More</t>
   </si>
   <si>
-    <t>AnonD28</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r257311092-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -435,7 +564,46 @@
     <t>The hotel was decent with average facilities.1) Both the keys to our room didn't work immediately  after check-inn. I had to go back again the reception lobby to get the keys reconfigured. This time I got lucky and one key worked.2) The next day when we came back from site-seeing, both the keys didn't work. Had to go back again to the reception to get reconfigured.3) The hotel says free wifi, but the person at the reception has no idea what is the wifi name and password. After asking(calling the receptionist 3-4 times from the room), eventually we cracked the password. Phew!!!!4) The breakfast is very minimal with only cereals, coffee and juice. And the timings are also not very accommodating - 8am-10am.5) One day we had to leave early(by 7am), thus requested them to open the breakfast by 7am. Luckily they obliged and let us have breakfast at 7am.6) Room service came everyday to change the linen and toiletries. The room was clean when we came back from the local tourist attractions.More</t>
   </si>
   <si>
-    <t>kyosenshi</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r240773441-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>240773441</t>
+  </si>
+  <si>
+    <t>11/20/2014</t>
+  </si>
+  <si>
+    <t>My newfound Love of Pico Rivera Los Angeles Guesthouse</t>
+  </si>
+  <si>
+    <t>Good week Folks!The ceremony Nichols Screenwriting @ AMPAS was awesome! I met and received encouragement to enter again from the winners, enchanted by the cast and crew. Looking good I am publishing my book which a screenplay is based..I had an amazing week and end in LA Hollywood I took some pictures straight up Holly blvd. Missed 10:00pm night bus 62 in the fashion district and walked and absorbed a defeated character as I walked up skid row 7th avenue. Sitting in Italian made jacket ( I got from The Sally Ann) a with no cuff linked white shirt sitting on a clean curb among the desolate. Method Man Ackin' my Brando till morning and pancake. Broke and hungry Rest finally as I go back to my room in Pico Rivera, helicopters buttering above to make sure I'm safe. Followed with 2 days of rest and praise evangelistic prayer and Spanish television free breakfast. Hollywood and Vine to take Walk of Stars photos felt sooooo comfortable there I could actually live there as a Montreal ex pat!!!Made it back before the Buffalo storm! AmenI am blessed to visit LA and shall return to Guesthouse!! The service friendly with Sandra yet secures any question or inquiry 24/7. The rooms clean secure air conditioned/heated accessible for disability TV cable and WiFi Strong. Smart for local land line phone calls locally.https://www.facebook.com/media/set/?set=a.10154845745935271.1073741830.731995270&amp;type=1&amp;l=27250c58ebMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Good week Folks!The ceremony Nichols Screenwriting @ AMPAS was awesome! I met and received encouragement to enter again from the winners, enchanted by the cast and crew. Looking good I am publishing my book which a screenplay is based..I had an amazing week and end in LA Hollywood I took some pictures straight up Holly blvd. Missed 10:00pm night bus 62 in the fashion district and walked and absorbed a defeated character as I walked up skid row 7th avenue. Sitting in Italian made jacket ( I got from The Sally Ann) a with no cuff linked white shirt sitting on a clean curb among the desolate. Method Man Ackin' my Brando till morning and pancake. Broke and hungry Rest finally as I go back to my room in Pico Rivera, helicopters buttering above to make sure I'm safe. Followed with 2 days of rest and praise evangelistic prayer and Spanish television free breakfast. Hollywood and Vine to take Walk of Stars photos felt sooooo comfortable there I could actually live there as a Montreal ex pat!!!Made it back before the Buffalo storm! AmenI am blessed to visit LA and shall return to Guesthouse!! The service friendly with Sandra yet secures any question or inquiry 24/7. The rooms clean secure air conditioned/heated accessible for disability TV cable and WiFi Strong. Smart for local land line phone calls locally.https://www.facebook.com/media/set/?set=a.10154845745935271.1073741830.731995270&amp;type=1&amp;l=27250c58ebMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r222159266-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>222159266</t>
+  </si>
+  <si>
+    <t>08/16/2014</t>
+  </si>
+  <si>
+    <t>Way better than expected</t>
+  </si>
+  <si>
+    <t>Was pretty horrified when I got booked into this hotel as a wedding guest but it actually all turned out a pleasant surprise. Ground floor room was pretty dated but clean enough and a good size with desk, fridge, microwave and TV. Bathroom had plenty of hot water and the beds were comfortable. Son had an upstairs corner room also even large than ours and the rest of the guests seemed pretty happy.The breakfast was extremely meagre and there`s plenty of better options up the street. Pool was a great asset and the kids had a great time.Staff were obliging although some had  trouble understanding English and I`d be happy to stay there again.Other guests stayed at the Econolodge next door and for a similar price the Guesthouse was much better. There`s a lot of restaurants nearby and a 4711 just up the road.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Was pretty horrified when I got booked into this hotel as a wedding guest but it actually all turned out a pleasant surprise. Ground floor room was pretty dated but clean enough and a good size with desk, fridge, microwave and TV. Bathroom had plenty of hot water and the beds were comfortable. Son had an upstairs corner room also even large than ours and the rest of the guests seemed pretty happy.The breakfast was extremely meagre and there`s plenty of better options up the street. Pool was a great asset and the kids had a great time.Staff were obliging although some had  trouble understanding English and I`d be happy to stay there again.Other guests stayed at the Econolodge next door and for a similar price the Guesthouse was much better. There`s a lot of restaurants nearby and a 4711 just up the road.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r214159221-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
@@ -453,15 +621,9 @@
     <t>Seriously bad service.  They guy was rude and patronizing. He said I HAD to use my own card to pay for the room and wouldn't let my husband pay. We even had to drive out of the way to the bank because of this. Horrible. He also gave us keys to someone elses room...insisted no one was in there and then had an epiphany after we walked away. Spa and pool close by 6pm and breakfast was extremely minimal and from 8am -10am, which isn't convenient if you need to leave early. Oh and they only have two tables to eat at, but you cannot take food into your room!MoreShow less</t>
   </si>
   <si>
-    <t>July 2014</t>
-  </si>
-  <si>
     <t>Seriously bad service.  They guy was rude and patronizing. He said I HAD to use my own card to pay for the room and wouldn't let my husband pay. We even had to drive out of the way to the bank because of this. Horrible. He also gave us keys to someone elses room...insisted no one was in there and then had an epiphany after we walked away. Spa and pool close by 6pm and breakfast was extremely minimal and from 8am -10am, which isn't convenient if you need to leave early. Oh and they only have two tables to eat at, but you cannot take food into your room!More</t>
   </si>
   <si>
-    <t>Ashlie P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r212837153-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -480,9 +642,6 @@
     <t>Stayed there 3 night unfortunately and on the first night we got there they gave us a smoking room when we had booked a non smoking room we explained to them after we had called twice to verify that we would be there that we needed a non smoking room due to having kids that can't be around that all the manager did was say "call expedia"  because they had given all the non smoking rooms away by the time we got there not only was it a smoking room but it had no locks in the hotel and the window was broken. After trying to find a different hotel for hours and being unsuccessful since it was already 11 at night we complied again to get a new room the next day which was't much better at all there was mold in the bathroom. This definitely isn't a place to go for a peaceful vacation. The entire time we were there there were loud parties going on to the point the walls would shake and when we called the front office all they said was it would be ending soon which it never did because every hour we were worken up by the loud speakers microphone and people. If you don't know Spanish you won't get much help here. Also they advertise a "hot tub" by the pool but it doesn't work. Long story short I would not recommend...Stayed there 3 night unfortunately and on the first night we got there they gave us a smoking room when we had booked a non smoking room we explained to them after we had called twice to verify that we would be there that we needed a non smoking room due to having kids that can't be around that all the manager did was say "call expedia"  because they had given all the non smoking rooms away by the time we got there not only was it a smoking room but it had no locks in the hotel and the window was broken. After trying to find a different hotel for hours and being unsuccessful since it was already 11 at night we complied again to get a new room the next day which was't much better at all there was mold in the bathroom. This definitely isn't a place to go for a peaceful vacation. The entire time we were there there were loud parties going on to the point the walls would shake and when we called the front office all they said was it would be ending soon which it never did because every hour we were worken up by the loud speakers microphone and people. If you don't know Spanish you won't get much help here. Also they advertise a "hot tub" by the pool but it doesn't work. Long story short I would not recommend this place at all. More</t>
   </si>
   <si>
-    <t>ezsarabia1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r201623808-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -501,7 +660,43 @@
     <t>March 2014</t>
   </si>
   <si>
-    <t>Brenda G</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r175763377-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>175763377</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>Horrible Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rooms were overbooked, room did not have all amenities listed, not enough parking, rude customer service. I did not feel safe staying in this hotel, and do not recommend anyone going to this hotel unless you are strapped and ready for the worst. </t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r167862408-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>167862408</t>
+  </si>
+  <si>
+    <t>07/16/2013</t>
+  </si>
+  <si>
+    <t>worst service ever dont stay here</t>
+  </si>
+  <si>
+    <t>I travel a lot places to places.I recently stay in this hotel I had the worse experience ever. 8455 Telegraph Rd, Pico Rivera, CA 90660. I spent $100 for a jucuzzi room it end being the crappiest room ever. I was very surprised. It was suppose to be a CLEANEST jucuzzi room. It turns out the room was not clean the jucuzzi was so dirty there was dirt around the tub I didn't even get the chance to use it at all. The fee was $100 this was not worth $100. Worst case scenario there were no other rooms available that night. Had a long day working in and out. I was stuck with the jucuzzi dirty room. Very disappointment with there service. Also the customer service with there employees not so well. The owner should do something to improve there service. The worker ladies are very rude not professional and not care for the business. Very true. For those that are planning to stay here for a night or two I do not recommend it however if you do plan to stay for a night make sure its affordable price ask for $60 no tax for a CLEAN NICE room. STAYED 2013MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I travel a lot places to places.I recently stay in this hotel I had the worse experience ever. 8455 Telegraph Rd, Pico Rivera, CA 90660. I spent $100 for a jucuzzi room it end being the crappiest room ever. I was very surprised. It was suppose to be a CLEANEST jucuzzi room. It turns out the room was not clean the jucuzzi was so dirty there was dirt around the tub I didn't even get the chance to use it at all. The fee was $100 this was not worth $100. Worst case scenario there were no other rooms available that night. Had a long day working in and out. I was stuck with the jucuzzi dirty room. Very disappointment with there service. Also the customer service with there employees not so well. The owner should do something to improve there service. The worker ladies are very rude not professional and not care for the business. Very true. For those that are planning to stay here for a night or two I do not recommend it however if you do plan to stay for a night make sure its affordable price ask for $60 no tax for a CLEAN NICE room. STAYED 2013More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r146259207-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
@@ -525,9 +720,6 @@
     <t>The room was immaculately clean, and it did have both a fridge and microwave. There was a desk and another table. There were two things that made the experience unpleasant for me.  One was that I  told both the booking agency and the girl at the desk that I have bad knees and find stairs and walking distances while I am carrying things difficult.  They thought that having an elevator was sufficient, and it would have been if my room had been close to the elevator  It was not.I did not eat the free breakfast because it would have meant much more walking The other thing was that the bathtub was so narrow it was almost unusable as a bathtub.  I might stay again if I could get a first floor room, but not otherwise.More</t>
   </si>
   <si>
-    <t>lou M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r135665120-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -549,9 +741,6 @@
     <t>, This makes the do Not Stay list for sure. Sad part I stayed there for 3 weeks, rooms were ok but customer service SUCKS big time. I have been in contact with their Corp office for 3 weeks yet and I agree with what ETracker said OWNER IS THE WORST. But the way Corp, is handling it now theyre almost tied , Only thing worst then the owner is the BED BUGS that were in my room. Elevators not only didnt work but are way past city code inspections. When asked if I could move from 3flr to 1st they pulled the Sorry NO ENGLISH  crap..I'm putting my money on the Chicago Cubs to win the World Series before I even get a call back from the owner or the $80,refund I am requesting. Im thinking once the City Health Dept and Code Dept hear from me theyre gonna wish they acted quicker.Shame to see last good review was 7 yrs agoMore</t>
   </si>
   <si>
-    <t>ETtracker</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r118731249-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -573,7 +762,40 @@
     <t>I am a business traveler and stay in hotels about 8 months out of the year. Today is September 29th 2011. This dump is the worst experience I have ever had. The owners are the worst I've ever seen. I got here yesterday after booking thru hotwire.com. I have had to change rooms 5 times. the last room I was moved to smelled like a urinal and there was a used condom laying on the floor next to the bed, which I took two photos of before the girl at the front desk came up an removed it. A hispanic housekeeper was rude and Mr Patel the owner never bothered to show his face to offer any help and never apologized for the most mizerable stay i my life. P/S The night clerk was unable to fix the toilet, so if i have to go, i have to use the bathroom in another out of order romm down the hall. I will never forget this experience. As for your corporate offices, I called several times yesterday and left two voicemails, your offices still have not called me back. I have been designing, maintaining and marketing websites for hotels since 2002. If anyone has the resources and the experience to seriously damage the reputation of any hotel or brand, it's me. I paid one of your hotels good money to be treated like dirt on top of everything else and nobody...I am a business traveler and stay in hotels about 8 months out of the year. Today is September 29th 2011. This dump is the worst experience I have ever had. The owners are the worst I've ever seen. I got here yesterday after booking thru hotwire.com. I have had to change rooms 5 times. the last room I was moved to smelled like a urinal and there was a used condom laying on the floor next to the bed, which I took two photos of before the girl at the front desk came up an removed it. A hispanic housekeeper was rude and Mr Patel the owner never bothered to show his face to offer any help and never apologized for the most mizerable stay i my life. P/S The night clerk was unable to fix the toilet, so if i have to go, i have to use the bathroom in another out of order romm down the hall. I will never forget this experience. As for your corporate offices, I called several times yesterday and left two voicemails, your offices still have not called me back. I have been designing, maintaining and marketing websites for hotels since 2002. If anyone has the resources and the experience to seriously damage the reputation of any hotel or brand, it's me. I paid one of your hotels good money to be treated like dirt on top of everything else and nobody from this hotel or your corporate office has offered any customer service at all. You should start seeing the results for your poorly manage and maintazined hotels very soon. If I do not receive proper customer service for this nightmare, you will find it much harder selling your brand to new properties. If this goes unaddressed, I will spend all my time for the next 6 months sharing my photos and recordings with your peers. That shopuld give you a good isea about how badly I was treated. Several of the employees here felt deeply for me. They obviously know that the owners don't care about their customers. I did absolutely nothing to deserve any of this.More</t>
   </si>
   <si>
-    <t>Debbie G</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r90341134-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>90341134</t>
+  </si>
+  <si>
+    <t>12/20/2010</t>
+  </si>
+  <si>
+    <t>abosolute worst service ever</t>
+  </si>
+  <si>
+    <t>housekeeping is noisy and wakes you up.housekeepers walk into rooms with privacy signs open and dont seem to care that you are in. a cleaning lady walked into my room, asked if i wanted house keeping as i was sleeping, i say no. she then comes back in like 1 hour, dosent even knock, walks in and says the same thing. front desk people are terible and talk to you like they are doing you a favor. hot water randomly turns off.just straight up terible, there are tons of other places close to this place in the same price range, stay there.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r14433666-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>14433666</t>
+  </si>
+  <si>
+    <t>03/21/2008</t>
+  </si>
+  <si>
+    <t>jerry springer episode!!!!!</t>
+  </si>
+  <si>
+    <t>rooms are nice. but you better check the time on the hotel clock. because if the time is one hour behind because the hotel forgot after 2 weeks to set the clock ahead, then you may face a cop at gunpoint at your door!!!! I called the front desk to say I would stay another nt, but I would want to change rooms because the maids were extremely noisy slamming a security door in front of my room. young girl at desk (must have all of 12 yrs old) said I had to check out immedialty or she would call the cops! I asked for the mang. but she refused. so I went to take a shower. when I got out and was naked. a cop was banging at my door. I put on a t shirt and answered the door to a gun in my face! he stuck his foot in the door and wanted me to leave in my underwear!!! I was escorted off the property by 2 police cruisers. after contacting the corperate office and after one week finally the owner calls me to offer my $70.00 back for the room. but even then he did not refund that money for another week. and says he is reducing her hours but has not fired her yet!!!  plan to sue him for $5,000 for total humillation!!!!! don't stay here unless you love humillation .MoreShow less</t>
+  </si>
+  <si>
+    <t>rooms are nice. but you better check the time on the hotel clock. because if the time is one hour behind because the hotel forgot after 2 weeks to set the clock ahead, then you may face a cop at gunpoint at your door!!!! I called the front desk to say I would stay another nt, but I would want to change rooms because the maids were extremely noisy slamming a security door in front of my room. young girl at desk (must have all of 12 yrs old) said I had to check out immedialty or she would call the cops! I asked for the mang. but she refused. so I went to take a shower. when I got out and was naked. a cop was banging at my door. I put on a t shirt and answered the door to a gun in my face! he stuck his foot in the door and wanted me to leave in my underwear!!! I was escorted off the property by 2 police cruisers. after contacting the corperate office and after one week finally the owner calls me to offer my $70.00 back for the room. but even then he did not refund that money for another week. and says he is reducing her hours but has not fired her yet!!!  plan to sue him for $5,000 for total humillation!!!!! don't stay here unless you love humillation .More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d240887-r4371754-GuestHouse_Inn_Suites_Pico_Rivera-Pico_Rivera_California.html</t>
@@ -1096,47 +1318,43 @@
       <c r="A2" t="n">
         <v>44940</v>
       </c>
-      <c r="B2" t="n">
-        <v>181594</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1146,7 +1364,7 @@
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1154,63 +1372,59 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>44940</v>
       </c>
-      <c r="B3" t="n">
-        <v>181595</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
       </c>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>4</v>
@@ -1221,54 +1435,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>44940</v>
       </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1282,249 +1492,237 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>44940</v>
       </c>
-      <c r="B5" t="n">
-        <v>181596</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>44940</v>
       </c>
-      <c r="B6" t="n">
-        <v>181597</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>44940</v>
       </c>
-      <c r="B7" t="n">
-        <v>181598</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>3</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>44940</v>
       </c>
-      <c r="B8" t="n">
-        <v>181599</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="n">
+      <c r="Q8" t="n">
         <v>4</v>
       </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
@@ -1536,125 +1734,107 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>44940</v>
       </c>
-      <c r="B9" t="n">
-        <v>181600</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>108</v>
-      </c>
-      <c r="O9" t="s">
-        <v>109</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>4</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>44940</v>
       </c>
-      <c r="B10" t="n">
-        <v>181601</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="s"/>
@@ -1664,54 +1844,50 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>44940</v>
       </c>
-      <c r="B11" t="n">
-        <v>181602</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1725,66 +1901,62 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>44940</v>
       </c>
-      <c r="B12" t="n">
-        <v>181603</v>
-      </c>
-      <c r="C12" t="s">
-        <v>124</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1792,194 +1964,180 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>44940</v>
       </c>
-      <c r="B13" t="n">
-        <v>181604</v>
-      </c>
-      <c r="C13" t="s">
-        <v>131</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="O13" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>3</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>44940</v>
       </c>
-      <c r="B14" t="n">
-        <v>181605</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>44940</v>
       </c>
-      <c r="B15" t="n">
-        <v>181606</v>
-      </c>
-      <c r="C15" t="s">
-        <v>147</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
       <c r="R15" t="n">
-        <v>1</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1987,70 +2145,60 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>44940</v>
       </c>
-      <c r="B16" t="n">
-        <v>181607</v>
-      </c>
-      <c r="C16" t="s">
-        <v>154</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="O16" t="s">
-        <v>86</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
       <c r="R16" t="n">
-        <v>1</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2058,141 +2206,121 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>44940</v>
       </c>
-      <c r="B17" t="n">
-        <v>17187</v>
-      </c>
-      <c r="C17" t="s">
-        <v>161</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
         <v>47</v>
       </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="J17" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="K17" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
       <c r="R17" t="n">
         <v>3</v>
       </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>2</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>44940</v>
       </c>
-      <c r="B18" t="n">
-        <v>181608</v>
-      </c>
-      <c r="C18" t="s">
-        <v>169</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="O18" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2200,70 +2328,60 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>44940</v>
       </c>
-      <c r="B19" t="n">
-        <v>181609</v>
-      </c>
-      <c r="C19" t="s">
-        <v>177</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
         <v>47</v>
       </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="O19" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2271,51 +2389,51 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>44940</v>
       </c>
-      <c r="B20" t="n">
-        <v>8133</v>
-      </c>
-      <c r="C20" t="s">
-        <v>185</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
         <v>47</v>
       </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
       <c r="I20" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="J20" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="K20" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="L20" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>168</v>
+      </c>
+      <c r="O20" t="s">
+        <v>144</v>
+      </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
@@ -2328,7 +2446,950 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>143</v>
+      </c>
+      <c r="O21" t="s">
+        <v>79</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" t="s">
+        <v>185</v>
+      </c>
+      <c r="L23" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23" t="s">
+        <v>144</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>190</v>
+      </c>
+      <c r="J24" t="s">
         <v>191</v>
+      </c>
+      <c r="K24" t="s">
+        <v>192</v>
+      </c>
+      <c r="L24" t="s">
+        <v>193</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>194</v>
+      </c>
+      <c r="O24" t="s">
+        <v>111</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>197</v>
+      </c>
+      <c r="J25" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25" t="s">
+        <v>199</v>
+      </c>
+      <c r="L25" t="s">
+        <v>200</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>194</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26" t="s">
+        <v>204</v>
+      </c>
+      <c r="K26" t="s">
+        <v>205</v>
+      </c>
+      <c r="L26" t="s">
+        <v>206</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O27" t="s">
+        <v>111</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>215</v>
+      </c>
+      <c r="J28" t="s">
+        <v>216</v>
+      </c>
+      <c r="K28" t="s">
+        <v>217</v>
+      </c>
+      <c r="L28" t="s">
+        <v>218</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>219</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" t="s">
+        <v>224</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>225</v>
+      </c>
+      <c r="O29" t="s">
+        <v>144</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>228</v>
+      </c>
+      <c r="J30" t="s">
+        <v>229</v>
+      </c>
+      <c r="K30" t="s">
+        <v>230</v>
+      </c>
+      <c r="L30" t="s">
+        <v>231</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>232</v>
+      </c>
+      <c r="O30" t="s">
+        <v>79</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>234</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J31" t="s">
+        <v>236</v>
+      </c>
+      <c r="K31" t="s">
+        <v>237</v>
+      </c>
+      <c r="L31" t="s">
+        <v>238</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>239</v>
+      </c>
+      <c r="O31" t="s">
+        <v>144</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>241</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>242</v>
+      </c>
+      <c r="J32" t="s">
+        <v>243</v>
+      </c>
+      <c r="K32" t="s">
+        <v>244</v>
+      </c>
+      <c r="L32" t="s">
+        <v>245</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>246</v>
+      </c>
+      <c r="O32" t="s">
+        <v>144</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>248</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>249</v>
+      </c>
+      <c r="J33" t="s">
+        <v>250</v>
+      </c>
+      <c r="K33" t="s">
+        <v>251</v>
+      </c>
+      <c r="L33" t="s">
+        <v>252</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>253</v>
+      </c>
+      <c r="O33" t="s">
+        <v>144</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>254</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>255</v>
+      </c>
+      <c r="J34" t="s">
+        <v>256</v>
+      </c>
+      <c r="K34" t="s">
+        <v>257</v>
+      </c>
+      <c r="L34" t="s">
+        <v>258</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>260</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>261</v>
+      </c>
+      <c r="J35" t="s">
+        <v>262</v>
+      </c>
+      <c r="K35" t="s">
+        <v>263</v>
+      </c>
+      <c r="L35" t="s">
+        <v>264</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
